--- a/tests_cases/PE54 - TC - 02.xlsx
+++ b/tests_cases/PE54 - TC - 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Q-CHECK\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544A05D-C58B-46DD-9E8B-0CE0C15C1B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DEB31-D102-4E9D-8705-7D01F0EC4973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Pre-requisites:</t>
+  </si>
+  <si>
+    <t>Estar en la pagina de login</t>
   </si>
 </sst>
 </file>
@@ -781,193 +784,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,7 +1346,7 @@
   <dimension ref="A1:Q135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G100" sqref="A1:H100"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,80 +1368,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="18">
         <v>0.1</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="60"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1446,1702 +1449,1764 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="A8" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="66">
+      <c r="C8" s="45"/>
+      <c r="D8" s="50">
         <v>1</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
+      <c r="A9" s="49">
         <v>2</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="66">
+      <c r="C9" s="45"/>
+      <c r="D9" s="50">
         <v>2</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+      <c r="A10" s="49">
         <v>3</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="65">
+      <c r="C10" s="45"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
         <v>4</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="B11" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="69" t="s">
         <v>80</v>
       </c>
       <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="70" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="70"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="72" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="72"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="21" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
+      <c r="A18" s="53">
         <v>1</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="74" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
+      <c r="A19" s="53">
         <v>2</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="74" t="s">
+      <c r="E19" s="65"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
+      <c r="A20" s="53">
         <v>3</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="74" t="s">
+      <c r="E20" s="65"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="74" t="s">
+      <c r="H20" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="44" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="63" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="18">
         <v>0.1</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="60"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="57" t="s">
+      <c r="C43" s="45"/>
+      <c r="D43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="65">
+      <c r="A44" s="49">
         <v>1</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="65">
+      <c r="C44" s="45"/>
+      <c r="D44" s="49">
         <v>1</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="65">
+      <c r="A45" s="49">
         <v>2</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="65">
+      <c r="C45" s="45"/>
+      <c r="D45" s="49">
         <v>2</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="65">
+      <c r="A46" s="49">
         <v>3</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="49">
         <v>4</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="69" t="s">
         <v>80</v>
       </c>
       <c r="H49" s="69"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="18" t="s">
+      <c r="C51" s="16"/>
+      <c r="D51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="70" t="s">
+      <c r="F51" s="45"/>
+      <c r="G51" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="70"/>
+      <c r="H51" s="68"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="72" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="72"/>
+      <c r="H52" s="67"/>
     </row>
     <row r="53" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="17" t="s">
+      <c r="C53" s="71"/>
+      <c r="D53" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="21" t="s">
+      <c r="E53" s="64"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="73">
+      <c r="A54" s="53">
         <v>1</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68" t="s">
+      <c r="C54" s="65"/>
+      <c r="D54" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="74" t="s">
+      <c r="E54" s="65"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H54" s="74" t="s">
+      <c r="H54" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73">
+      <c r="A55" s="53">
         <v>2</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68" t="s">
+      <c r="C55" s="65"/>
+      <c r="D55" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="74" t="s">
+      <c r="E55" s="65"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="74" t="s">
+      <c r="H55" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73">
+      <c r="A56" s="53">
         <v>3</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68" t="s">
+      <c r="C56" s="65"/>
+      <c r="D56" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="68"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="74" t="s">
+      <c r="E56" s="65"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="74" t="s">
+      <c r="H56" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="44" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="44"/>
+      <c r="H61" s="60"/>
     </row>
     <row r="62" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="76"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="76"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="76"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="76"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="76"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="76"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="59" t="s">
+      <c r="D72" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="59"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="61" t="s">
+      <c r="D73" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="61"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="62"/>
-      <c r="C74" s="63" t="s">
+      <c r="B74" s="46"/>
+      <c r="C74" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="18">
         <v>0.1</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="60"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="45"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
     </row>
     <row r="76" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="57" t="s">
+      <c r="C78" s="45"/>
+      <c r="D78" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="65">
+      <c r="A79" s="49">
         <v>1</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="65">
+      <c r="C79" s="45"/>
+      <c r="D79" s="49">
         <v>1</v>
       </c>
-      <c r="E79" s="66" t="s">
+      <c r="E79" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="65">
+      <c r="A80" s="49">
         <v>2</v>
       </c>
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="65">
+      <c r="C80" s="45"/>
+      <c r="D80" s="49">
         <v>2</v>
       </c>
-      <c r="E80" s="66" t="s">
+      <c r="E80" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
     </row>
     <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="65">
+      <c r="A81" s="49">
         <v>3</v>
       </c>
-      <c r="B81" s="66" t="s">
+      <c r="B81" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="65">
+      <c r="A82" s="49">
         <v>4</v>
       </c>
-      <c r="B82" s="66" t="s">
+      <c r="B82" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="60"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="68" t="s">
+      <c r="B84" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="64"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="48"/>
       <c r="G84" s="69" t="s">
         <v>80</v>
       </c>
       <c r="H84" s="69"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
     </row>
     <row r="86" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="18" t="s">
+      <c r="C86" s="16"/>
+      <c r="D86" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="60"/>
-      <c r="G86" s="70" t="s">
+      <c r="F86" s="45"/>
+      <c r="G86" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="70"/>
+      <c r="H86" s="68"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="71"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="72" t="s">
+      <c r="A87" s="52"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H87" s="72"/>
+      <c r="H87" s="67"/>
     </row>
     <row r="88" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="17" t="s">
+      <c r="C88" s="71"/>
+      <c r="D88" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="21" t="s">
+      <c r="E88" s="64"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="21" t="s">
+      <c r="H88" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="73">
+      <c r="A89" s="53">
         <v>1</v>
       </c>
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68" t="s">
+      <c r="C89" s="65"/>
+      <c r="D89" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E89" s="68"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="74" t="s">
+      <c r="E89" s="65"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H89" s="74" t="s">
+      <c r="H89" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="73">
+      <c r="A90" s="53">
         <v>2</v>
       </c>
-      <c r="B90" s="68" t="s">
+      <c r="B90" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68" t="s">
+      <c r="C90" s="65"/>
+      <c r="D90" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E90" s="68"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="74" t="s">
+      <c r="E90" s="65"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H90" s="74" t="s">
+      <c r="H90" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="73">
+      <c r="A91" s="53">
         <v>3</v>
       </c>
-      <c r="B91" s="68" t="s">
+      <c r="B91" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68" t="s">
+      <c r="C91" s="65"/>
+      <c r="D91" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="68"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="74" t="s">
+      <c r="E91" s="65"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H91" s="74" t="s">
+      <c r="H91" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="73"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="75"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="73"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="75"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="55"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="73"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="75"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="60"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
     </row>
     <row r="96" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="44" t="s">
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H96" s="44"/>
+      <c r="H96" s="60"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="60"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="60"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="60"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D107" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="E107" s="46"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
+      <c r="E107" s="75"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="35" t="s">
+      <c r="A108" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="34" t="s">
+      <c r="D108" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="49" t="s">
+      <c r="B109" s="34"/>
+      <c r="C109" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="21">
         <v>0.1</v>
       </c>
-      <c r="E109" s="50"/>
-      <c r="F109" s="51"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="47"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="33"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
     </row>
     <row r="111" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="35" t="s">
+      <c r="C113" s="33"/>
+      <c r="D113" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="36">
+      <c r="A114" s="28">
         <v>1</v>
       </c>
-      <c r="B114" s="52" t="s">
+      <c r="B114" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="36">
+      <c r="C114" s="33"/>
+      <c r="D114" s="28">
         <v>1</v>
       </c>
-      <c r="E114" s="52" t="s">
+      <c r="E114" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="36">
+      <c r="A115" s="28">
         <v>2</v>
       </c>
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="47"/>
-      <c r="D115" s="36">
+      <c r="C115" s="33"/>
+      <c r="D115" s="28">
         <v>2</v>
       </c>
-      <c r="E115" s="52" t="s">
+      <c r="E115" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="36">
+      <c r="A116" s="28">
         <v>3</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="36">
+      <c r="A117" s="28">
         <v>4</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C117" s="47"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="42" t="s">
+      <c r="B119" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C119" s="42"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="38" t="s">
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="H119" s="38"/>
+      <c r="H119" s="77"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="28"/>
-      <c r="B120" s="42"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
+      <c r="A120" s="74"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
     </row>
     <row r="121" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="29" t="s">
+      <c r="C121" s="25"/>
+      <c r="D121" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F121" s="47"/>
-      <c r="G121" s="39" t="s">
+      <c r="F121" s="33"/>
+      <c r="G121" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="39"/>
+      <c r="H121" s="62"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="40" t="s">
+      <c r="A122" s="41"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H122" s="40"/>
+      <c r="H122" s="63"/>
     </row>
     <row r="123" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="31"/>
-      <c r="D123" s="28" t="s">
+      <c r="C123" s="73"/>
+      <c r="D123" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="28"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="32" t="s">
+      <c r="E123" s="74"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H123" s="32" t="s">
+      <c r="H123" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="41">
+      <c r="A124" s="30">
         <v>1</v>
       </c>
-      <c r="B124" s="42" t="s">
+      <c r="B124" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C124" s="42"/>
-      <c r="D124" s="42" t="s">
+      <c r="C124" s="58"/>
+      <c r="D124" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E124" s="42"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="43" t="s">
+      <c r="E124" s="58"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H124" s="43" t="s">
+      <c r="H124" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="41">
+      <c r="A125" s="30">
         <v>2</v>
       </c>
-      <c r="B125" s="42" t="s">
+      <c r="B125" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C125" s="42"/>
-      <c r="D125" s="42" t="s">
+      <c r="C125" s="58"/>
+      <c r="D125" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E125" s="42"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="43" t="s">
+      <c r="E125" s="58"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H125" s="43" t="s">
+      <c r="H125" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="41">
+      <c r="A126" s="30">
         <v>3</v>
       </c>
-      <c r="B126" s="42" t="s">
+      <c r="B126" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="42"/>
-      <c r="D126" s="42" t="s">
+      <c r="C126" s="58"/>
+      <c r="D126" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E126" s="42"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="43" t="s">
+      <c r="E126" s="58"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="H126" s="43" t="s">
+      <c r="H126" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="56"/>
-      <c r="H127" s="56"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="42"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="42"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="56"/>
-      <c r="H128" s="56"/>
+      <c r="A128" s="30"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="42"/>
+      <c r="H128" s="42"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="56"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="42"/>
+      <c r="H129" s="42"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
-      <c r="D130" s="47"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
     </row>
     <row r="131" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="44" t="s">
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H131" s="44"/>
+      <c r="H131" s="60"/>
     </row>
     <row r="132" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="47"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="59"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="47"/>
-      <c r="D135" s="47"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:E120"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:E85"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G121:H121"/>
     <mergeCell ref="G122:H122"/>
     <mergeCell ref="B125:C125"/>
@@ -3164,79 +3229,17 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:E50"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:E85"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:E120"/>
-    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3373,12 +3376,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005ACBF82FF32280448C88565210D23A47" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97d18655ea211e7533acd5a2318ca8a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c71177d-84a1-4dd9-b712-f5a48054c455" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4416c93f0313e0694190cc26fdb99745" ns2:_="">
     <xsd:import namespace="9c71177d-84a1-4dd9-b712-f5a48054c455"/>
@@ -3510,6 +3507,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9EE348-9CCE-471E-BE4A-E92394DC64F7}">
   <ds:schemaRefs>
@@ -3519,15 +3522,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69FDEB6B-1403-4F25-B1A4-5EE5DE15C544}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3543,4 +3537,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E2D575-FFD0-4884-BFC5-ACB7CFB69618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests_cases/PE54 - TC - 02.xlsx
+++ b/tests_cases/PE54 - TC - 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Q-CHECK\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511DEB31-D102-4E9D-8705-7D01F0EC4973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9244FF1A-8429-49CD-A1A6-09F2A04D5DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="91">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -308,13 +308,16 @@
   </si>
   <si>
     <t>Estar en la pagina de login</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +474,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,8 +568,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -745,8 +760,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -755,8 +783,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -808,173 +837,199 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="Bad" xfId="8" builtinId="27"/>
     <cellStyle name="Calculation" xfId="7" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
@@ -1343,22 +1398,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="48.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -1367,216 +1422,230 @@
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="78"/>
+    </row>
+    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="71"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="78"/>
+    </row>
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="18">
         <v>0.1</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="33"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="78"/>
+    </row>
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="78"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-    </row>
-    <row r="8" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="78"/>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="50">
+      <c r="C8" s="41"/>
+      <c r="D8" s="46">
         <v>1</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="78"/>
+    </row>
+    <row r="9" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
         <v>2</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="50">
+      <c r="C9" s="41"/>
+      <c r="D9" s="46">
         <v>2</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="78"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
         <v>3</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="C10" s="41"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
         <v>4</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="69" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="69"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="68"/>
+      <c r="I13" s="78"/>
+    </row>
+    <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="78"/>
+    </row>
+    <row r="15" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
@@ -1590,471 +1659,501 @@
       <c r="E15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="68" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="68"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="67"/>
-    </row>
-    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H16" s="66"/>
+      <c r="I16" s="78"/>
+    </row>
+    <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="64" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="45"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="53">
+      <c r="I17" s="78"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
         <v>1</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="54" t="s">
+      <c r="E18" s="64"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+      <c r="I18" s="78"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
         <v>2</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="54" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53">
+      <c r="I19" s="78"/>
+    </row>
+    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
         <v>3</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="54" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="60" t="s">
+      <c r="I20" s="78"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="78"/>
+    </row>
+    <row r="22" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="78"/>
+    </row>
+    <row r="23" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="78"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="78"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="1:8" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-    </row>
-    <row r="27" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-    </row>
-    <row r="30" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="H25" s="59"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="78"/>
+    </row>
+    <row r="27" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="78"/>
+    </row>
+    <row r="28" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="78"/>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="78"/>
+    </row>
+    <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="78"/>
+    </row>
+    <row r="31" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="E37" s="69"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="78"/>
+    </row>
+    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="71"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="78"/>
+    </row>
+    <row r="39" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="18">
         <v>0.1</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-    </row>
-    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E39" s="33"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="78"/>
+    </row>
+    <row r="40" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="78"/>
+    </row>
+    <row r="41" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="78"/>
+    </row>
+    <row r="42" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="78"/>
+    </row>
+    <row r="43" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="43" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="78"/>
+    </row>
+    <row r="44" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45">
         <v>1</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="49">
+      <c r="C44" s="41"/>
+      <c r="D44" s="45">
         <v>1</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="78"/>
+    </row>
+    <row r="45" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45">
         <v>2</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="49">
+      <c r="C45" s="41"/>
+      <c r="D45" s="54">
         <v>2</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-    </row>
-    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="78"/>
+    </row>
+    <row r="46" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45">
         <v>3</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
+      <c r="C46" s="41"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="78"/>
+    </row>
+    <row r="47" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45">
         <v>4</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+      <c r="C47" s="41"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="78"/>
+    </row>
+    <row r="48" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="78"/>
+    </row>
+    <row r="49" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="69" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="H49" s="69"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H49" s="68"/>
+      <c r="I49" s="78"/>
+    </row>
+    <row r="50" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="78"/>
+    </row>
+    <row r="51" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
@@ -2068,461 +2167,491 @@
       <c r="E51" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="68" t="s">
+      <c r="F51" s="41"/>
+      <c r="G51" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="68"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="78"/>
+    </row>
+    <row r="52" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="67" t="s">
+      <c r="F52" s="41"/>
+      <c r="G52" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="67"/>
-    </row>
-    <row r="53" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H52" s="66"/>
+      <c r="I52" s="78"/>
+    </row>
+    <row r="53" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="64" t="s">
+      <c r="C53" s="70"/>
+      <c r="D53" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="45"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53">
+      <c r="I53" s="78"/>
+    </row>
+    <row r="54" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="49">
         <v>1</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65" t="s">
+      <c r="C54" s="64"/>
+      <c r="D54" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="54" t="s">
+      <c r="E54" s="64"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H54" s="54" t="s">
+      <c r="H54" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53">
+      <c r="I54" s="78"/>
+    </row>
+    <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="49">
         <v>2</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="54" t="s">
+      <c r="E55" s="64"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="54" t="s">
+      <c r="H55" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53">
+      <c r="I55" s="78"/>
+    </row>
+    <row r="56" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="49">
         <v>3</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65" t="s">
+      <c r="C56" s="64"/>
+      <c r="D56" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="65"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="54" t="s">
+      <c r="E56" s="64"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="54" t="s">
+      <c r="H56" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="60" t="s">
+      <c r="I56" s="78"/>
+    </row>
+    <row r="57" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="83"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="78"/>
+    </row>
+    <row r="58" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="83"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="78"/>
+    </row>
+    <row r="59" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="83"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="78"/>
+    </row>
+    <row r="60" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="78"/>
+    </row>
+    <row r="61" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H61" s="60"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="H61" s="59"/>
+      <c r="I61" s="78"/>
+    </row>
+    <row r="62" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="78"/>
+    </row>
+    <row r="63" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="78"/>
+    </row>
+    <row r="64" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="78"/>
+    </row>
+    <row r="65" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="78"/>
+    </row>
+    <row r="66" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="78"/>
+    </row>
+    <row r="67" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+    </row>
+    <row r="68" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+    </row>
+    <row r="70" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+    </row>
+    <row r="71" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+    </row>
+    <row r="72" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="70" t="s">
+      <c r="D72" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="70"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="E72" s="69"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="78"/>
+    </row>
+    <row r="73" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="72" t="s">
+      <c r="D73" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="72"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="71"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="78"/>
+    </row>
+    <row r="74" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="47" t="s">
+      <c r="B74" s="42"/>
+      <c r="C74" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="18">
         <v>0.1</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="45"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48"/>
-    </row>
-    <row r="76" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E74" s="33"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="78"/>
+    </row>
+    <row r="75" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="78"/>
+    </row>
+    <row r="76" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="48"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="78"/>
+    </row>
+    <row r="77" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="78"/>
+    </row>
+    <row r="78" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="43" t="s">
+      <c r="C78" s="41"/>
+      <c r="D78" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49">
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="78"/>
+    </row>
+    <row r="79" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45">
         <v>1</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="49">
+      <c r="C79" s="41"/>
+      <c r="D79" s="45">
         <v>1</v>
       </c>
-      <c r="E79" s="50" t="s">
+      <c r="E79" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49">
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="78"/>
+    </row>
+    <row r="80" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="45">
         <v>2</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="49">
+      <c r="C80" s="41"/>
+      <c r="D80" s="45">
         <v>2</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="E80" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-    </row>
-    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="49">
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="78"/>
+    </row>
+    <row r="81" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="45">
         <v>3</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="45"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49">
+      <c r="C81" s="41"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="78"/>
+    </row>
+    <row r="82" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="45">
         <v>4</v>
       </c>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
+      <c r="C82" s="41"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="78"/>
+    </row>
+    <row r="83" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="78"/>
+    </row>
+    <row r="84" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="69" t="s">
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="H84" s="69"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-    </row>
-    <row r="86" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H84" s="68"/>
+      <c r="I84" s="78"/>
+    </row>
+    <row r="85" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="63"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="78"/>
+    </row>
+    <row r="86" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>12</v>
       </c>
@@ -2536,603 +2665,669 @@
       <c r="E86" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="68" t="s">
+      <c r="F86" s="41"/>
+      <c r="G86" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H86" s="68"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="78"/>
+    </row>
+    <row r="87" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="48"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="67" t="s">
+      <c r="F87" s="41"/>
+      <c r="G87" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="H87" s="67"/>
-    </row>
-    <row r="88" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="H87" s="66"/>
+      <c r="I87" s="78"/>
+    </row>
+    <row r="88" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="71"/>
-      <c r="D88" s="64" t="s">
+      <c r="C88" s="70"/>
+      <c r="D88" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="64"/>
-      <c r="F88" s="45"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="41"/>
       <c r="G88" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H88" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="53">
+      <c r="I88" s="78"/>
+    </row>
+    <row r="89" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="81">
         <v>1</v>
       </c>
-      <c r="B89" s="65" t="s">
+      <c r="B89" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65" t="s">
+      <c r="C89" s="82"/>
+      <c r="D89" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E89" s="65"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="54" t="s">
+      <c r="E89" s="82"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H89" s="54" t="s">
+      <c r="H89" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="53">
+      <c r="I89" s="78"/>
+    </row>
+    <row r="90" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="49">
         <v>2</v>
       </c>
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65" t="s">
+      <c r="C90" s="64"/>
+      <c r="D90" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E90" s="65"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="54" t="s">
+      <c r="E90" s="64"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H90" s="54" t="s">
+      <c r="H90" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="53">
+      <c r="I90" s="78"/>
+    </row>
+    <row r="91" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="49">
         <v>3</v>
       </c>
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65" t="s">
+      <c r="C91" s="64"/>
+      <c r="D91" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="65"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="54" t="s">
+      <c r="E91" s="64"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H91" s="54" t="s">
+      <c r="H91" s="50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="60" t="s">
+      <c r="I91" s="78"/>
+    </row>
+    <row r="92" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="83"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
+      <c r="I92" s="78"/>
+    </row>
+    <row r="93" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="83"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="83"/>
+      <c r="H93" s="83"/>
+      <c r="I93" s="78"/>
+    </row>
+    <row r="94" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="78"/>
+    </row>
+    <row r="95" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="78"/>
+    </row>
+    <row r="96" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H96" s="60"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="H96" s="59"/>
+      <c r="I96" s="78"/>
+    </row>
+    <row r="97" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="78"/>
+    </row>
+    <row r="98" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="78"/>
+    </row>
+    <row r="99" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="78"/>
+    </row>
+    <row r="100" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="78"/>
+    </row>
+    <row r="101" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+    </row>
+    <row r="107" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="75" t="s">
+      <c r="D107" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="E107" s="75"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
+      <c r="E107" s="74"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="78"/>
+    </row>
+    <row r="108" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="76" t="s">
+      <c r="D108" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="76"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E108" s="75"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="78"/>
+    </row>
+    <row r="109" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="35" t="s">
+      <c r="B109" s="31"/>
+      <c r="C109" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="21">
         <v>0.1</v>
       </c>
-      <c r="E109" s="36"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="33"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-    </row>
-    <row r="111" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E109" s="33"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="78"/>
+    </row>
+    <row r="110" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="78"/>
+    </row>
+    <row r="111" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="78"/>
+    </row>
+    <row r="112" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="78"/>
+    </row>
+    <row r="113" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="27" t="s">
+      <c r="C113" s="30"/>
+      <c r="D113" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E113" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="28">
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="78"/>
+    </row>
+    <row r="114" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="53">
         <v>1</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="33"/>
-      <c r="D114" s="28">
+      <c r="C114" s="30"/>
+      <c r="D114" s="53">
         <v>1</v>
       </c>
-      <c r="E114" s="38" t="s">
+      <c r="E114" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="28">
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="78"/>
+    </row>
+    <row r="115" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="53">
         <v>2</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="33"/>
-      <c r="D115" s="28">
+      <c r="C115" s="30"/>
+      <c r="D115" s="53">
         <v>2</v>
       </c>
-      <c r="E115" s="38" t="s">
+      <c r="E115" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="28">
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="78"/>
+    </row>
+    <row r="116" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="53">
         <v>3</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="33"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="28">
+      <c r="C116" s="30"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="78"/>
+    </row>
+    <row r="117" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="53">
         <v>4</v>
       </c>
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C117" s="33"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="74" t="s">
+      <c r="C117" s="30"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="78"/>
+    </row>
+    <row r="118" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="78"/>
+    </row>
+    <row r="119" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="58" t="s">
+      <c r="B119" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="77" t="s">
+      <c r="C119" s="57"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="H119" s="77"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="74"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
-    </row>
-    <row r="121" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="24" t="s">
+      <c r="H119" s="76"/>
+      <c r="I119" s="78"/>
+    </row>
+    <row r="120" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="73"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="78"/>
+    </row>
+    <row r="121" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C121" s="25"/>
-      <c r="D121" s="24" t="s">
+      <c r="C121" s="23"/>
+      <c r="D121" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="25" t="s">
+      <c r="E121" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F121" s="33"/>
-      <c r="G121" s="62" t="s">
+      <c r="F121" s="30"/>
+      <c r="G121" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H121" s="62"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="63" t="s">
+      <c r="H121" s="61"/>
+      <c r="I121" s="78"/>
+    </row>
+    <row r="122" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="38"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H122" s="63"/>
-    </row>
-    <row r="123" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="24" t="s">
+      <c r="H122" s="62"/>
+      <c r="I122" s="78"/>
+    </row>
+    <row r="123" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="73" t="s">
+      <c r="B123" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="73"/>
-      <c r="D123" s="74" t="s">
+      <c r="C123" s="72"/>
+      <c r="D123" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="74"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="26" t="s">
+      <c r="E123" s="73"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H123" s="26" t="s">
+      <c r="H123" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="30">
+      <c r="I123" s="78"/>
+    </row>
+    <row r="124" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="27">
         <v>1</v>
       </c>
-      <c r="B124" s="58" t="s">
+      <c r="B124" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58" t="s">
+      <c r="C124" s="57"/>
+      <c r="D124" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E124" s="58"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="31" t="s">
+      <c r="E124" s="57"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H124" s="31" t="s">
+      <c r="H124" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="30">
+      <c r="I124" s="78"/>
+    </row>
+    <row r="125" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="27">
         <v>2</v>
       </c>
-      <c r="B125" s="58" t="s">
+      <c r="B125" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C125" s="58"/>
-      <c r="D125" s="58" t="s">
+      <c r="C125" s="57"/>
+      <c r="D125" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E125" s="58"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="31" t="s">
+      <c r="E125" s="57"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H125" s="31" t="s">
+      <c r="H125" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="30">
+      <c r="I125" s="78"/>
+    </row>
+    <row r="126" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="27">
         <v>3</v>
       </c>
-      <c r="B126" s="58" t="s">
+      <c r="B126" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="58"/>
-      <c r="D126" s="58" t="s">
+      <c r="C126" s="57"/>
+      <c r="D126" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E126" s="58"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="31" t="s">
+      <c r="E126" s="57"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H126" s="31" t="s">
+      <c r="H126" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="60" t="s">
+      <c r="I126" s="78"/>
+    </row>
+    <row r="127" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="85"/>
+      <c r="B127" s="86"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="86"/>
+      <c r="E127" s="86"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="78"/>
+    </row>
+    <row r="128" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="85"/>
+      <c r="B128" s="86"/>
+      <c r="C128" s="86"/>
+      <c r="D128" s="86"/>
+      <c r="E128" s="86"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="78"/>
+    </row>
+    <row r="129" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="85"/>
+      <c r="B129" s="86"/>
+      <c r="C129" s="86"/>
+      <c r="D129" s="86"/>
+      <c r="E129" s="86"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="78"/>
+    </row>
+    <row r="130" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="30"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="78"/>
+    </row>
+    <row r="131" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="30"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H131" s="60"/>
-    </row>
-    <row r="132" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61"/>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="59"/>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="59"/>
-      <c r="H134" s="59"/>
-    </row>
-    <row r="135" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="59"/>
+      <c r="H131" s="59"/>
+      <c r="I131" s="78"/>
+    </row>
+    <row r="132" spans="1:9" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="78"/>
+    </row>
+    <row r="133" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="30"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="78"/>
+    </row>
+    <row r="134" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="30"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="78"/>
+    </row>
+    <row r="135" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="78"/>
+    </row>
+    <row r="136" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="78"/>
+      <c r="B136" s="78"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="78"/>
+      <c r="E136" s="78"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="78"/>
+      <c r="H136" s="78"/>
+      <c r="I136" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="104">
